--- a/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Esophageal stricture.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Esophageal stricture.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present.</t>
+          <t>Raynauds phenomenon reported is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic vascular manifestation in CREST syndrome, strongly suggesting a systemic sclerodermal process rather than a localized esophageal lesion.</t>
+          <t>Raynaud's phenomenon is a hallmark of connective tissue disease seen in CREST syndrome, making it a strong discriminator in favor of CREST.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Long-standing heartburn (duration of years) is present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chronic heartburn is a common precursor to esophageal strictures caused by ongoing acid reflux, favoring an esophageal stricture over CREST-associated motility issues.</t>
+          <t>Chronic heartburn is a typical risk factor for chronic acid reflux that can lead to esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present.</t>
+          <t>Telangiectasias reported is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are common in CREST syndrome and indicate cutaneous vascular abnormalities associated with systemic sclerosis, which are not features of an esophageal stricture.</t>
+          <t>Telangiectasias are a classic feature of CREST syndrome and are not seen in esophageal strictures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Long-standing reflux (duration of years) is present</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Persistent reflux is strongly associated with the development of esophageal strictures due to prolonged mucosal damage and scarring.</t>
+          <t>Prolonged reflux increases the risk for esophageal mucosal injury and subsequent stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hand pain out of proportion to other joints is present.</t>
+          <t>Difficulty swallowing liquids is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This finding is supportive of systemic involvement seen in scleroderma/CREST syndrome, distinguishing it from an isolated esophageal condition.</t>
+          <t>Dysphagia for liquids is more consistent with a motility disorder like Type 2 Achalasia seen in CREST syndrome rather than a mechanical stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Current heartburn is present</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diminishing response to antacids suggests a structural change such as an esophageal stricture, rather than the motility dysfunction seen in CREST syndrome.</t>
+          <t>Active heartburn supports ongoing acid exposure, which is more typical of esophageal stricture than a primary motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Difficulty swallowing solids is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In the context of CREST syndrome with Type 2 Achalasia, regurgitation relieving chest pain fits a motility disorder rather than a fixed structural stricture.</t>
+          <t>Although both conditions can cause dysphagia, the presence of dysphagia with liquids supports an esophageal motility disorder (achalasia) typical of CREST.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Current reflux is present</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Primary dysphagia for solids is more consistent with a mechanical obstruction seen in esophageal strictures than with the equal difficulty in liquids and solids seen in achalasia.</t>
+          <t>Current reflux further indicates acid-induced damage to the esophagus, supporting the diagnosis of esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
+          <t>Pain relieved with regurgitation is present</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Achalasia (especially in a systemic disease context) can produce simultaneous difficulty with both liquids and solids without a progressive pattern, whereas strictures typically worsen over time and primarily affect solids first.</t>
+          <t>Relief of pain with regurgitation is more commonly observed in motility issues such as achalasia associated with CREST syndrome than in mechanical obstruction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Onset of chest pain associated with eating food is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chest pain triggered by food intake suggests an esophageal mechanical obstruction, as food passage is impaired, unlike the motility dysfunction in CREST syndrome.</t>
+          <t>Chest pain associated with eating suggests a mechanical disruption in the esophagus, which is more in line with esophageal stricture than with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -618,17 +618,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome (a limited form of systemic sclerosis) is well known to predominantly affect females.</t>
+          <t>CREST syndrome with Type 2 Achalasia is more frequently seen in middle‐aged females, consistent with known epidemiology.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior radiation treatment</t>
+          <t>Absence of prior radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esophageal strictures are often linked to prior radiation damage; while its absence disfavors radiation‐induced stricture, in the comparative context it lessens support for a dysmotility disorder like CREST where radiation is not implicated.</t>
+          <t>A history of radiation is a strong risk factor for esophageal strictures; its absence decreases the likelihood of a radiation-induced stricture, yet in the absence of CREST findings it might have pointed toward a structural injury.</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome typically presents in middle‐aged individuals, which fits this demographic.</t>
+          <t>The typical onset for CREST syndrome is in middle age, supporting this diagnosis over esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -650,19 +650,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic alcohol use can be associated with reflux and mucosal injury leading to strictures. Its absence modestly leaves open a structural rather than a systemic motility cause.</t>
+          <t>Alcohol use disorder is associated with chronic mucosal damage and could predispose to stricture formation; its absence weighs against that etiological pathway.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine in the absence of diagnosed hypertension</t>
+          <t>Takes amlodipine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker; in patients without hypertension it may be used off‐label to help manage vascular symptoms (eg, Raynaud phenomenon) seen in CREST syndrome.</t>
+          <t>Amlodipine is often used to manage vascular conditions such as Raynaud's phenomenon, which is frequently associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -672,51 +672,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nicotine use is known to worsen gastroesophageal reflux which predisposes to stricture formation. The lack of nicotine use is more in keeping with patients presenting with a structural disorder such as a stricture rather than an autoimmune motility disorder.</t>
+          <t>Nicotine dependence is linked to long-term mucosal irritation and injury that may lead to stricture formation, and its absence is more typical in patients not suffering from stricture-related causes.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of prior radiation treatment</t>
+          <t>Absence of prior radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Radiation to the neck or chest is a known risk factor for developing esophageal strictures. Its absence discounts a common iatrogenic cause of strictures while not affecting CREST-associated dysmotility.</t>
+          <t>Radiation exposure is a known risk factor for esophageal strictures; its absence makes a non-radiation related esophageal dysmotility (as seen in CREST) more likely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of recent medication changes</t>
+          <t>Absence of obesity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A stable medication regimen suggests that the esophageal problem is chronic and structural (ie, a stricture) rather than a fluctuating process seen in autoimmune dysmotility like that in CREST syndrome.</t>
+          <t>Obesity is a risk factor for gastroesophageal reflux disease, which can lead to esophageal stricture; not being obese lowers that risk.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of multiple cardiovascular risk factors (eg, coronary artery disease, hyperlipidemia, myocardial infarction, stroke)</t>
+          <t>Absence of alcohol use disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The overall lack of cardiovascular comorbidities is consistent with the clinical profile of CREST syndrome rather than conditions associated with secondary esophageal injury from vascular disease or other metabolic derangements.</t>
+          <t>Alcohol use is more often implicated in mucosal injury leading to strictures, so its absence indirectly supports a motility disorder like that seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of other autoimmune or systemic inflammatory findings (eg, environmental allergies, asthma, eczema)</t>
+          <t>Absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While not direct risk factors for stricture, the absence of additional autoimmune‐linked findings decreases the likelihood of a systemic sclerosis process (CREST) and thus indirectly supports a local structural abnormality such as an esophageal stricture.</t>
+          <t>Type 2 diabetes is associated with several gastrointestinal complications including reflux disease which can predispose to stricture development; its absence slightly reduces the risk of such complications.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Absence of current tobacco use</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Absence of alcohol use reduces the risk of alcohol‐induced gastroesophageal reflux, which is a common contributor to esophageal strictures, thereby indirectly favoring a diagnosis of CREST syndrome with Type 2 Achalasia where reflux injury is not the primary mechanism.</t>
+          <t>CREST syndrome is autoimmune in nature and is not driven by active tobacco use, whereas tobacco use is linked with increased reflux risk, which predisposes to esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present</t>
+          <t>Prior tobacco use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A history of prior tobacco use is a well‐established risk factor for gastroesophageal reflux disease, which can lead to chronic inflammation and subsequent esophageal stricture formation.</t>
+          <t>A history of tobacco use increases risk for gastroesophageal reflux, which is a common predisposing factor for developing an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Absence of alcohol use</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The lack of current tobacco use lowers the risk for developing reflux-associated mucosal damage that can result in esophageal stricture, making CREST syndrome relatively more likely.</t>
+          <t>Alcohol consumption is a known aggravator of gastroesophageal reflux, which can lead to esophageal stricture; its absence supports a non-reflux etiology such as CREST syndrome-related achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Family history of myocardial infarction in father</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The presence of cardiovascular risk factors in the family may reflect an overall atherosclerotic and pro-inflammatory milieu that has been associated with gastroesophageal reflux, contributing to the risk of stricture.</t>
+          <t>A family history of cardiovascular disease may correlate with lifestyle factors (such as obesity or reflux) that predispose to esophageal stricture rather than autoimmune conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of recent travel makes exposure-related esophageal injury or infectious causes of stricture less likely, indirectly favoring a primary motility disorder as seen in CREST syndrome with Type 2 Achalasia.</t>
+          <t>Stress can exacerbate autoimmune conditions like CREST syndrome; while it is nonspecific, it is more often linked with disease flare in autoimmune disorders than with esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Absence of alcohol use</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate reflux symptoms by increasing acid secretion and altering esophageal sphincter tone, indirectly supporting the pathogenesis of esophageal stricture.</t>
+          <t>While the absence of alcohol use supports CREST syndrome, in the context of stricture workup, it may remove a confounding factor that would otherwise point to reflux-related damage; however in this case, the focus on other risk factors prioritizes stricture risk related to previous tobacco use.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent</t>
+          <t>Prior tobacco use (with current use absent)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Without a family history of cancer, there is less likelihood of radiation or malignant-related treatments that may predispose to esophageal stricture, thus indirectly supporting CREST syndrome.</t>
+          <t>The history of past tobacco use without current use points away from ongoing exposures contributing to acid reflux and stricture formation, making an autoimmune process (such as CREST syndrome with Type 2 Achalasia) relatively more likely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alcohol use is absent (used comparatively)</t>
+          <t>Absence of recent medical procedure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While absence of alcohol use is supportive of CREST syndrome, in this context its evaluation alongside other risk factors like prior tobacco use underscores that the remaining risk factors favor esophageal injury and stricture formation rather than an autoimmune motility disorder.</t>
+          <t>Although esophageal procedures can lead to stricture formation, chronic acid reflux remains the more common cause. In this context, the lack of a procedure directs attention to lifestyle-related reflux injury.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent</t>
+          <t>Absence of recent medical procedure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications minimizes the possibility of pregnancy-related reflux exacerbation leading to stricture, indirectly shifting support toward CREST syndrome with Type 2 Achalasia.</t>
+          <t>Esophageal strictures can often be a complication of recent endoscopic or other esophageal manipulations. Its absence is more consistent with a chronic autoimmune process like CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent (used comparatively)</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use is less protective when there is a history of prior use, maintaining the risk for chronic esophageal injury and making esophageal stricture a plausible diagnosis.</t>
+          <t>Stress can exacerbate behaviors that promote reflux (such as poor dietary habits or neglect of acid-suppressive therapy), indirectly favoring the development of an esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a classic feature of CREST syndrome and support a diagnosis of systemic sclerosis-related esophageal dysmotility (Type 2 Achalasia).</t>
+          <t>Telangiectasias are a classic feature in CREST syndrome (part of scleroderma spectrum) and are not expected in esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of Raynauds phenomennon on exam</t>
+          <t>Raynauds phenomennon on exam is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud’s phenomenon is a hallmark of CREST syndrome; its absence argues against a systemic sclerosis process and thus favors a mechanical esophageal stricture.</t>
+          <t>Raynaud's phenomenon is a hallmark of CREST syndrome; its absence is more consistent with an esophageal stricture not associated with systemic sclerosis.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While weight loss can occur in both conditions, in the setting of CREST syndrome it may be attributed to dysmotility due to smooth muscle involvement rather than a mechanical obstruction.</t>
+          <t>Weight loss can occur in CREST syndrome as a consequence of esophageal dysmotility (type 2 achalasia) leading to nutritional deficits, supporting a systemic process.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of hand thickening observed</t>
+          <t>Hand thickening observed is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hand thickening (sclerodactyly) is a classic sign of CREST syndrome; its absence favors an alternative diagnosis such as esophageal stricture.</t>
+          <t>Hand thickening (sclerodactyly) is common in CREST syndrome; its absence supports a diagnosis of esophageal stricture over a scleroderma-related motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Absence of hoarse voice</t>
+          <t>Absence of epigastric pain on palpation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hoarseness is not typically seen in CREST syndrome related esophageal dysmotility; its absence can help steer away from structural lesions that might impinge on the laryngeal area.</t>
+          <t>The lack of epigastric pain makes a reflux-driven process (often underlying esophageal stricture) less likely, indirectly favoring CREST-related motility issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of finger ulcers observed</t>
+          <t>Finger ulcers observed is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Finger ulcers may occur in CREST syndrome due to vascular compromise; their absence supports a non-scleroderma process like esophageal stricture.</t>
+          <t>Finger ulcers may occur in CREST syndrome due to vascular compromise; their absence argues against a systemic scleroderma process.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain on palpation</t>
+          <t>Absence of hoarse voice observed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lack of epigastric pain makes reflux‐induced esophageal injury less likely, which is more supportive of CREST syndrome’s motility disorder mechanism.</t>
+          <t>Hoarseness may be seen in conditions with laryngeal involvement from reflux; its absence supports a motility disorder like type 2 achalasia seen in CREST over a stricture from reflux injury.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of rheumatoid nodules</t>
+          <t>Joint swelling observed is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While not specific to esophageal stricture, the overall lack of systemic scleroderma or connective tissue inflammatory findings favors a local mechanical obstruction.</t>
+          <t>Joint swelling can be part of the autoimmune process in CREST; its absence is more consistent with a localized process like esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of joint swelling</t>
+          <t>Absence of cough observed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The noninflammatory profile (absence of joint swelling) aligns with CREST syndrome where joint inflammation is not a typical feature, in contrast to conditions causing reactive strictures.</t>
+          <t>A chronic cough is more typical with aspiration or reflux (which can lead to strictures), so its absence leans more towards a primary motility disorder as seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of neck masses or fullness observed</t>
+          <t>Rheumatoid nodules is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Without evidence of mass effect or lymphadenopathy, there is less suggestion of a diffuse systemic process such as CREST syndrome, indirectly supporting a structural stricture as the etiology of esophageal dysfunction.</t>
+          <t>While not specific to CREST, the absence of rheumatoid nodules further diminishes evidence for an autoimmune connective tissue disorder, indirectly favoring a structural cause such as esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a common metabolic finding that can occur in many patients; though not specific, its presence does not argue against a motility disorder such as Type 2 Achalasia seen in CREST syndrome.</t>
+          <t>In advanced CREST syndrome with esophageal dysmotility (as seen with type 2 achalasia), one might expect episodes of aspiration; its absence makes aspiration‐related complications less likely, which could be seen in an early or limited form of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,19 +1081,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esophageal strictures are not typically associated with autoimmune markers; the absence of a strong positive ANA leans away from an autoimmune process such as CREST.</t>
+          <t>In esophageal stricture, an autoimmune marker such as a strong positive ANA is neither expected nor required; its absence argues against an autoimmune process like CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Although many patients with CREST syndrome have a positive ANA, its absence does not completely rule out CREST with Type 2 Achalasia; however, it weakens the autoimmune signal typical for CREST.</t>
+          <t>Although interstitial lung disease (ILD) can be seen in systemic sclerosis variants, its absence does not rule out CREST; in fact, a limited CREST phenotype (often associated with type 2 achalasia) may not yet demonstrate pulmonary involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,41 +1103,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Since esophageal strictures are generally not linked with interstitial lung disease, the absence of ILD supports a non-systemic cause like a stricture over CREST syndrome.</t>
+          <t>Interstitial lung disease is a potential extracutaneous manifestation in CREST syndrome; its absence is more consistent with an isolated structural process such as esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not typically a feature of CREST syndrome, so its absence aligns more with the CREST profile rather than esophageal structural abnormalities that might alter mediastinal contours.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MBS shows aspiration is absent</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Patients with CREST-related esophageal dysmotility sometimes experience aspiration; its absence, while not diagnostic, still leaves the possibility of CREST with Type 2 Achalasia on the table.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MBS shows aspiration is absent</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aspiration is more commonly associated with significant dysmotility, as can be seen in achalasia; its absence supports a localized mechanical problem (stricture) rather than a motility disorder.</t>
+          <t>In cases of severe esophageal dysmotility associated with CREST syndrome, aspiration is more frequently encountered; the absence of aspiration findings supports a more mechanical process like an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>Hyperlipidemia on lab testing is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is associated with systemic sclerosis; its absence does not preclude CREST syndrome (limited form), where ILD may be less prominent.</t>
+          <t>While hyperlipidemia is not a specific marker for CREST syndrome, its presence may be seen in patients with systemic autoimmune conditions; in this context it does little to favor esophageal stricture, thereby indirectly supporting a CREST-associated esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,19 +1147,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esophageal strictures usually do not alter mediastinal contours, so a normal mediastinal silhouette favors a stricture over a systemic process like CREST-related esophageal involvement.</t>
+          <t>A widened mediastinum might be encountered if there is a mass effect from luminal narrowing or post-inflammatory changes; its absence, while non‐specific, fits with a typical presentation of an esophageal stricture rather than an evolving systemic sclerosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum does not conflict with a diagnosis of CREST syndrome with type 2 achalasia and thus does not rule it out.</t>
+          <t>Although a strong positive antinuclear antibody (ANA) is common in systemic sclerosis (including CREST), in early or limited CREST cases the antibody titers may be low or absent; this possibility can be weighed against an esophageal stricture where autoantibody evaluation is not part of the expected work‐up.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is not related to autoimmune or connective tissue disorders and is more expected as an incidental finding in patients with benign conditions such as esophageal stricture.</t>
+          <t>Hyperlipidemia is not associated with autoimmune connective tissue disease but is a common finding in the general population and in patients with localized structural issues; its presence does not add support to a CREST syndrome diagnosis and thus indirectly favors an esophageal stricture workup.</t>
         </is>
       </c>
     </row>
